--- a/test_data/Login-data.xlsx
+++ b/test_data/Login-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sathik\eclipse-workspace\login\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33733DD-40A7-4ACA-88D3-74F1C298C23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F6F292-F383-4E1D-B7CA-EF1ACA28A571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
-    <t>pqrs@gmail.com</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,43 +352,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>987456</v>
-      </c>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{56DD30FA-EE95-45FD-9116-2825567D2148}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{8B4B25CF-C879-4ECD-8DDA-B2B31D8C60D7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>